--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B17EED-DD2F-4209-812C-27B976BEDC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E828C53C-BEF6-437E-B27D-9B2A10E15D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6070" yWindow="4300" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -186,10 +179,6 @@
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>snsコンサルティング事業</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -398,77 +387,76 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -819,386 +807,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="10">
         <f ca="1">TODAY()</f>
-        <v>44602</v>
-      </c>
-      <c r="H3" s="19"/>
+        <v>45053</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="2" t="s">
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickTop="1">
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="1:8" ht="19.5" thickTop="1">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15">
         <f ca="1">EDATE(G3,1)</f>
-        <v>44630</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.5" thickTop="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
+        <v>45084</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13">
-        <v>272727</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17">
+        <v>181870</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="18">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="18">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="18">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="18">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="18">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="18">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="17">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>272727</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>181870</v>
+      </c>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="17">
+        <v>18186</v>
+      </c>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="F34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="13">
-        <f>IF(G32="","",G32*0.1)</f>
-        <v>27272.7</v>
-      </c>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="26" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="22">
+        <f>IF(G32="","",SUM(G32:H35))</f>
+        <v>200056</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="12">
-        <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>299999.7</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1215,28 +1188,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E828C53C-BEF6-437E-B27D-9B2A10E15D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4685414-F6B1-4596-8435-717FA99AD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -182,17 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務委託費用</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>氏名：藤井　康裕</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>銀行名：三井住友銀行</t>
     <rPh sb="0" eb="3">
       <t>ギンコウメイ</t>
@@ -222,7 +211,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>支店名：和泉中央支店（945）</t>
+    <t>名義：フジイ　コウスケ</t>
+    <rPh sb="0" eb="2">
+      <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名：藤井康裕</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本給</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支店名：和泉中央支店</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
     </rPh>
@@ -238,9 +245,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名義：KOSUKE FUJII（藤井康裕）</t>
-    <rPh sb="0" eb="2">
-      <t>メイギ</t>
+    <t>業務委託費用</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備品</t>
+    <rPh sb="0" eb="2">
+      <t>ビヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>着払い 等</t>
+    <rPh sb="0" eb="2">
+      <t>チャクバラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -387,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -432,6 +469,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,7 +848,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -849,28 +889,28 @@
       </c>
       <c r="G3" s="10">
         <f ca="1">TODAY()</f>
-        <v>45053</v>
+        <v>45079</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,7 +930,7 @@
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>8</v>
@@ -898,7 +938,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45084</v>
+        <v>45109</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -925,12 +965,12 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="17">
-        <v>181870</v>
+        <v>163637</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -950,75 +990,87 @@
         <v>2</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17">
+        <v>4963</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="C22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17">
+        <v>1327</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="18">
         <v>4</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="C24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17">
+        <v>13637</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="18">
         <v>5</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -1026,9 +1078,9 @@
     <row r="27" spans="1:8">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1038,9 +1090,9 @@
         <v>6</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1048,9 +1100,9 @@
     <row r="29" spans="1:8">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -1060,9 +1112,9 @@
         <v>7</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -1070,20 +1122,20 @@
     <row r="31" spans="1:8">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="17">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>181870</v>
+        <v>183564</v>
       </c>
       <c r="H32" s="17"/>
     </row>
@@ -1091,62 +1143,63 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="17">
-        <v>18186</v>
+        <f>G32*0.1</f>
+        <v>18356.400000000001</v>
       </c>
       <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="23">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>200056</v>
-      </c>
-      <c r="H36" s="22"/>
+        <v>201920.4</v>
+      </c>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4685414-F6B1-4596-8435-717FA99AD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C65FF-2CF0-4D40-9D3C-EF23629AFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -225,10 +225,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>基本給</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>支店名：和泉中央支店</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
@@ -265,19 +261,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>備品</t>
-    <rPh sb="0" eb="2">
-      <t>ビヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>着払い 等</t>
-    <rPh sb="0" eb="2">
-      <t>チャクバラ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トウ</t>
+    <t>固定費</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>建て替え費用</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -434,6 +433,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,9 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,39 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,71 +850,71 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="26.5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="22">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>45108</v>
+      </c>
+      <c r="H3" s="23"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+    <row r="6" spans="1:8" ht="18.5" thickBot="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" thickTop="1">
+    <row r="7" spans="1:8" ht="18.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -928,47 +927,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1">
+    <row r="12" spans="1:8" ht="18.5" thickBot="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15">
+      <c r="F12" s="25"/>
+      <c r="G12" s="26">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45109</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" thickTop="1"/>
+        <v>45139</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18">
+      <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="17">
         <v>163637</v>
       </c>
@@ -976,166 +975,162 @@
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18">
+      <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="17">
-        <v>4963</v>
+        <v>5100</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18">
+      <c r="A22" s="11">
         <v>3</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="17">
-        <v>1327</v>
+        <v>5310</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18">
+      <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17">
-        <v>13637</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="18">
+      <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="18">
+      <c r="A28" s="11">
         <v>6</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="18">
+      <c r="A30" s="11">
         <v>7</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="17">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>183564</v>
+        <v>174047</v>
       </c>
       <c r="H32" s="17"/>
     </row>
@@ -1143,7 +1138,7 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
     </row>
@@ -1154,23 +1149,22 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="17">
-        <f>G32*0.1</f>
-        <v>18356.400000000001</v>
+        <v>17402</v>
       </c>
       <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="F35" s="21"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
@@ -1181,14 +1175,14 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="16">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>201920.4</v>
-      </c>
-      <c r="H36" s="23"/>
+        <v>191449</v>
+      </c>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
@@ -1197,34 +1191,12 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1241,6 +1213,28 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C65FF-2CF0-4D40-9D3C-EF23629AFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAADD92-647D-43B9-AC5F-8A2EA3A00CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -268,16 +268,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>建て替え費用</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヨウ</t>
-    </rPh>
+    <t>100円値下げ&amp;セール打ち</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -423,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +424,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -445,57 +487,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -844,77 +836,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="10">
         <f ca="1">TODAY()</f>
-        <v>45108</v>
-      </c>
-      <c r="H3" s="23"/>
+        <v>45139</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickTop="1">
+    <row r="7" spans="1:8" ht="19.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -927,276 +919,300 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45139</v>
-      </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
+        <v>45170</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11">
+      <c r="A18" s="17">
         <v>1</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="17">
-        <v>163637</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12">
+        <v>43572</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11">
+      <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="12">
+        <v>3080</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17">
-        <v>5100</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="11">
-        <v>3</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="17">
-        <v>5310</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="12">
+        <v>2728</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11">
+      <c r="A24" s="17">
         <v>4</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11">
+      <c r="A26" s="17">
         <v>5</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="11">
+      <c r="A28" s="17">
         <v>6</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11">
+      <c r="A30" s="17">
         <v>7</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="12">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>174047</v>
-      </c>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8">
+        <v>49380</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="F33" s="21"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="17">
-        <v>17402</v>
-      </c>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="12">
+        <v>4938</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="21"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="23">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>191449</v>
-      </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8">
+        <v>54318</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1213,28 +1229,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_ 藤井康裕.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAADD92-647D-43B9-AC5F-8A2EA3A00CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73DEE77-04FD-4E03-B422-41DBB8A47E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294967288" uniqueCount="28">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -424,6 +424,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,9 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,40 +488,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -839,74 +839,74 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="26.5">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>45170</v>
+      </c>
+      <c r="H3" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+    <row r="6" spans="1:8" ht="18.5" thickBot="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" thickTop="1">
+    <row r="7" spans="1:8" ht="18.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -919,221 +919,221 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1">
+    <row r="12" spans="1:8" ht="18.5" thickBot="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15">
+      <c r="F12" s="26"/>
+      <c r="G12" s="27">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45170</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" thickTop="1"/>
+        <v>45200</v>
+      </c>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="12">
-        <v>43572</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="18">
+        <v>9336</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17">
+      <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="12">
-        <v>3080</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18">
+        <v>4546</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="12">
         <v>3</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="12">
-        <v>2728</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="18">
+        <v>1263</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>4</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="17">
+      <c r="A26" s="12">
         <v>5</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17">
+      <c r="A28" s="12">
         <v>6</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="17">
+      <c r="A30" s="12">
         <v>7</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="18">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>49380</v>
-      </c>
-      <c r="H32" s="12"/>
+        <v>15145</v>
+      </c>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="28"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
@@ -1142,13 +1142,14 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="12">
-        <v>4938</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="G34" s="18">
+        <f>SUM(933,126,454)</f>
+        <v>1513</v>
+      </c>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
@@ -1157,9 +1158,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
@@ -1168,15 +1169,15 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="17">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>54318</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="28"/>
+        <v>16658</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
@@ -1185,34 +1186,12 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1229,6 +1208,28 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
